--- a/01-Excel/01-Activites/2/Activities/05-Ins_CentralTendency/Solved/CentralTendency.xlsx
+++ b/01-Excel/01-Activites/2/Activities/05-Ins_CentralTendency/Solved/CentralTendency.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arwenshackelford/curriculum/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/05-Ins_CentralTendency/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/05-Ins_CentralTendency/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D80524A-22F4-C741-8E8E-9231F75A930F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74BC09B-4E71-5348-ADC2-E470ECA10FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mean Example" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlchart.v1.2" hidden="1">'Single-Mode Example'!$A$2:$A$31</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Multi-Mode Example'!$A$2:$A$31</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
